--- a/VersionRecords/Version 5.2.10 20170209/定时器/新增定时器 (架构组).xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/定时器/新增定时器 (架构组).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="14070" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="6180" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>定时器大类</t>
   </si>
@@ -137,15 +138,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5.2.0</t>
+    <t>SMSReportTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信到达率报告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽昆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSReportTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SMSReportTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SMSReportTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早上10点执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,14 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
@@ -692,7 +725,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -748,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
@@ -797,7 +830,59 @@
         <v>30</v>
       </c>
       <c r="R2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
